--- a/part2_exploratory_analysis/Industry Crosswalk v2.xlsx
+++ b/part2_exploratory_analysis/Industry Crosswalk v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuakaplan/Documents/50-percent-Chance-of-Awesome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuakaplan/50-percent-Chance-of-Awesome/part2_exploratory_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B:$B</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$D$14</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
   <si>
     <t>Human Rights</t>
   </si>
@@ -359,9 +360,6 @@
     <t>not publicly traded</t>
   </si>
   <si>
-    <t>No idea</t>
-  </si>
-  <si>
     <t>Political Contribution Industries</t>
   </si>
   <si>
@@ -371,24 +369,12 @@
     <t>Primary Industry</t>
   </si>
   <si>
-    <t>Consumer Discretionary (Media category - Advertising firms are the most generous political contributors)</t>
-  </si>
-  <si>
     <t>*Opensecrets does not have computers/internet listed as an industry, just Internet</t>
   </si>
   <si>
-    <t>Consumer Discretionary (internet retail, advertising, media companies fall into this category)</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
-    <t>Consumer Discretionary (this category includes apple, microsoft, HP)</t>
-  </si>
-  <si>
-    <t>*not listed on OpenSecrets</t>
-  </si>
-  <si>
     <t>Not publicly traded</t>
   </si>
   <si>
@@ -401,12 +387,6 @@
     <t>*not listed on OpenSecrets, assume it is consumer staples</t>
   </si>
   <si>
-    <t>Secondary Industries</t>
-  </si>
-  <si>
-    <t>Consumer staples/materials/Industrials</t>
-  </si>
-  <si>
     <t>*Not listed on OpenSecrets</t>
   </si>
   <si>
@@ -425,18 +405,6 @@
     <t>* not listed on Opensecrets, assume same as telecom services &amp; equipment</t>
   </si>
   <si>
-    <t xml:space="preserve">Telecommunication Services </t>
-  </si>
-  <si>
-    <t>Includes a lot of industries that are listed separately, but the total contributions from here is a negligible amount ($29000 total), so we can throw it out</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary/Consumer Staples/Materials/Industrials</t>
-  </si>
-  <si>
-    <t>We could either split this category evenly between these four industries, or throw it out - I have no idea how much comes from each industry</t>
-  </si>
-  <si>
     <t>*about 1% ($29M) of total contributions comes from this category; we could either split them evenly between these four industries, or throw them out - I have no idea how much comes from each industry</t>
   </si>
   <si>
@@ -450,6 +418,24 @@
   </si>
   <si>
     <t>*not listed on OpenSecrets, but it is specifically named in the Commercial Services and supplies industry in the industrial sector of the S&amp;P</t>
+  </si>
+  <si>
+    <t>Not for profit, not listed on OpenSecrets</t>
+  </si>
+  <si>
+    <t>Secondary Industry 1</t>
+  </si>
+  <si>
+    <t>Secondary Industry 2</t>
+  </si>
+  <si>
+    <t>Secondary Industry 3</t>
+  </si>
+  <si>
+    <t>Includes a lot of industries that are listed separately, but the total contributions from here is a negligible amount ($29000 total), so we can throw it out. *Not listed on OpenSecrets</t>
+  </si>
+  <si>
+    <t>*not listed on Opensecrets</t>
   </si>
 </sst>
 </file>
@@ -798,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,57 +795,67 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -868,11 +864,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -881,11 +879,13 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
@@ -894,11 +894,13 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -907,11 +909,13 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -920,11 +924,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -935,62 +941,69 @@
         <v>95</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -999,8 +1012,10 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1008,29 +1023,32 @@
         <v>101</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1039,22 +1057,26 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1063,18 +1085,21 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1083,8 +1108,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1093,8 +1120,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1103,8 +1132,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1113,28 +1144,32 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1143,8 +1178,10 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1152,11 +1189,13 @@
         <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1164,23 +1203,26 @@
         <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -1188,11 +1230,13 @@
         <v>95</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1201,20 +1245,21 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1223,8 +1268,10 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -1233,18 +1280,21 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1253,48 +1303,54 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
@@ -1303,8 +1359,10 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -1312,11 +1370,13 @@
         <v>95</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -1325,28 +1385,32 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -1355,60 +1419,68 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
@@ -1417,8 +1489,10 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>84</v>
       </c>
@@ -1427,8 +1501,10 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
@@ -1436,37 +1512,41 @@
         <v>99</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1475,8 +1555,10 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -1484,11 +1566,13 @@
         <v>97</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -1497,8 +1581,10 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>87</v>
       </c>
@@ -1506,21 +1592,23 @@
         <v>100</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>56</v>
       </c>
@@ -1528,23 +1616,27 @@
         <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -1552,31 +1644,35 @@
         <v>95</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>29</v>
       </c>
@@ -1585,18 +1681,20 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,8 +1703,12 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>18</v>
       </c>
@@ -1615,8 +1717,10 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -1627,28 +1731,32 @@
         <v>95</v>
       </c>
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -1657,18 +1765,21 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -1676,21 +1787,24 @@
         <v>103</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
@@ -1699,18 +1813,21 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -1719,8 +1836,10 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
@@ -1729,8 +1848,10 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>19</v>
       </c>
@@ -1739,18 +1860,21 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>25</v>
       </c>
@@ -1759,8 +1883,10 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>75</v>
       </c>
@@ -1768,21 +1894,25 @@
         <v>96</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>55</v>
       </c>
@@ -1791,8 +1921,10 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
@@ -1801,8 +1933,10 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>46</v>
       </c>
@@ -1811,18 +1945,21 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>53</v>
       </c>
@@ -1831,8 +1968,10 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>77</v>
       </c>
@@ -1841,8 +1980,10 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -1851,19 +1992,21 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96"/>
   <sortState ref="A1:A180">
     <sortCondition ref="A1"/>
   </sortState>
